--- a/tooted.xlsx
+++ b/tooted.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="50" windowWidth="18470" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="50" windowWidth="18470" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>Leivad-saiad</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>Muud maiustused</t>
+  </si>
+  <si>
+    <t>peenleib</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>kukkel</t>
   </si>
 </sst>
 </file>
@@ -664,15 +673,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.296875" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
     <col min="2" max="2" width="36.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" customWidth="1"/>
     <col min="4" max="4" width="8.8984375" customWidth="1"/>
@@ -744,11 +753,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" ref="A5:A10" si="0">"insert into toidupyramiid.products(name, unitVal, unitType, prodType, comment) values('"&amp;B5&amp;"', "&amp;C5&amp;", '"&amp;D5&amp;"', "&amp;E5&amp;", '"&amp;F5&amp;"');"</f>
+        <v>insert into toidupyramiid.products(name, unitVal, unitType, prodType, comment) values('', , '', , '');</v>
+      </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into toidupyramiid.products(name, unitVal, unitType, prodType, comment) values('sepikut, täisterasaia, karaskit', 30, 'g', 1, '-');</v>
+      </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
@@ -772,6 +789,25 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into toidupyramiid.products(name, unitVal, unitType, prodType, comment) values('peenleib', 30, 'g', 1, 'Vähem siit grupist');</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
@@ -782,252 +818,1021 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into toidupyramiid.products(name, unitVal, unitType, prodType, comment) values('sai', 30, 'g', 1, 'Vähem siit grupist');</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into toidupyramiid.products(name, unitVal, unitType, prodType, comment) values('kukkel', 30, 'g', 1, 'Vähem siit grupist');</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into toidupyramiid.products(name, unitVal, unitType, prodType, comment) values('lavašš', 30, 'g', 1, 'Vähem siit grupist');</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" ref="F11:F61" si="1">I11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>Putrude-lisandite puhul on arvestatud, et need on valmistatud veega ja rasvaineta. Valmistades putru piima ja rasvainega, tuleb juurde arvestada vastavad piima- ja lisatavate rasvade portsjonid</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>Eelistada täisteraputrusid</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>Varieerida</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>V.a maisikrõpsud ja maisihelbed</v>
+      </c>
       <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>Eelistada täisteratooteid</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Eelistada magustamata maisihelbeid ja võimalikult “naturaalset” müslit</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Eelistada teiste teraviljatoodete grupis kama</v>
+      </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>Abistav lisainfo</v>
+      </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="H35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>Eelistada seda gruppi</v>
+      </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>Kartulipudru puhul arvestada vajadusel juurde lisatud piim- ja rasvaineportsjonid</v>
+      </c>
       <c r="G37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>Arvestada 100 g kohta juurde ca 25 g õli (ca 5 tl) ehk 5 portsjonit rasvu</v>
+      </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>Ära küpseta liialt pruuniks</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>Arvestada 100 g kohta juurde ca 10 g õli (ca 2 tl) ehk 2 portsjonit rasvu</v>
+      </c>
       <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>Arvestada 100 g kohta juurde ca 5 g õli (ca 1 tl) ehk 1 portsjon rasvu</v>
+      </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G47" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
-        <v>65</v>
-      </c>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" ref="F62:F125" si="2">I62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f t="shared" ref="F126:F138" si="3">I126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1039,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
